--- a/Master Physik HS2024.xlsx
+++ b/Master Physik HS2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasviebig/Desktop/Ausbilding/ETH/Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC7BE46-EF98-B64E-9CC2-77532FAD77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9EA253-DCD7-2148-AD5E-EF76A79FCAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t xml:space="preserve">Plan Master Physik </t>
   </si>
@@ -191,6 +191,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Statistical Physics</t>
+  </si>
+  <si>
+    <t>Astrophysics II: Observational Cosmology &amp; Extra-Galactic Astrophysics</t>
+  </si>
+  <si>
+    <t>https://www.vorlesungen.ethz.ch/Vorlesungsverzeichnis/lerneinheit.view?semkez=2024S&amp;lerneinheitId=178357&amp;ansicht=ALLE</t>
+  </si>
+  <si>
+    <t>Astrophysics III: Galactic Astrophysics</t>
+  </si>
+  <si>
+    <t>https://www.vorlesungen.ethz.ch/Vorlesungsverzeichnis/lerneinheit.view?semkez=2024S&amp;lerneinheitId=178036&amp;ansicht=ALLE</t>
+  </si>
+  <si>
+    <t>https://www.vorlesungen.ethz.ch/Vorlesungsverzeichnis/lerneinheit.view?lerneinheitId=177270&amp;semkez=2024S&amp;ansicht=LEHRVERANSTALTUNGEN&amp;lang=en</t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>Elective Courses, General</t>
+  </si>
+  <si>
+    <t>Sessionsprüfung and unbenotete Semesterleistung</t>
+  </si>
+  <si>
+    <t>GESS</t>
   </si>
 </sst>
 </file>
@@ -280,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +355,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -529,7 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
@@ -561,7 +582,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
@@ -888,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468B5F80-0D81-804E-BEF3-192351BBA696}">
   <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -896,9 +916,9 @@
   <cols>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -931,13 +951,13 @@
       <c r="F5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>38</v>
       </c>
     </row>
@@ -953,15 +973,15 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="16">
         <f>SUM(E7:E11)</f>
         <v>30</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7">
@@ -970,48 +990,48 @@
       <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>49</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="16"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>41</v>
       </c>
       <c r="G9" t="s">
@@ -1024,16 +1044,16 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="16"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="27"/>
       <c r="G10" t="s">
         <v>42</v>
       </c>
@@ -1044,10 +1064,9 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="16"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27"/>
       <c r="E11">
         <v>8</v>
       </c>
@@ -1071,16 +1090,70 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
         <f>SUM(E13:E21)</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="16"/>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -1133,6 +1206,9 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -1230,11 +1306,11 @@
       </c>
       <c r="D41">
         <f ca="1">SUMIF(C6:D39,"Core course*",E6:E39)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E41" s="10">
         <f ca="1">D41-C41</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
@@ -1259,7 +1335,7 @@
       </c>
       <c r="D43">
         <f ca="1">SUMIF(C6:D39,"Core Course, E*",E6:E39)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E43" s="10"/>
     </row>
@@ -1272,11 +1348,11 @@
       </c>
       <c r="D44">
         <f ca="1">SUMIF(C6:D39,"Elective*",E6:E39)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E44" s="10">
         <f ca="1">C44-D44</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
@@ -1299,7 +1375,7 @@
       <c r="C46" s="23"/>
       <c r="D46">
         <f ca="1">SUMIF(C6:D39,"*General",E6:E39)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E46" s="10"/>
     </row>
@@ -1360,11 +1436,11 @@
       </c>
       <c r="D50" s="11">
         <f ca="1">SUM(D41:D49)-SUM(D42:D43)-SUM(D45:D46)</f>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E50" s="11">
         <f ca="1">SUM(E41:E49)</f>
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -1408,6 +1484,8 @@
     <hyperlink ref="F7" r:id="rId2" xr:uid="{A07D0084-89C6-B74D-872C-9A2116CB0C5B}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{323DF84A-593E-944F-9DFF-098C424BB3D3}"/>
     <hyperlink ref="F9" r:id="rId4" xr:uid="{F9B921F0-47C1-BB42-AB83-3161D2811ECC}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{D9BD0CCE-655E-834E-A004-000B2095D334}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{D2D6C66C-A288-2F4F-BE71-A34EF4D7F5AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1417,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB49C26-7B12-E64C-AAD9-41E5B85C773C}">
   <dimension ref="C3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
